--- a/scripts/dataimport/ecology/Ruppia/ruppia_conv.xlsx
+++ b/scripts/dataimport/ecology/Ruppia/ruppia_conv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\Github\CDM\scripts\dataimport\ecology\Ruppia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32394204-6FCA-460C-9076-6B64A31418E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5FF43E-6790-4DE5-9773-A8837735E25B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1AB698C1-FF96-491D-9866-D8A11645C08C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{1AB698C1-FF96-491D-9866-D8A11645C08C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1051,27 +1051,27 @@
   <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:P1"/>
+      <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" style="6" customWidth="1"/>
-    <col min="3" max="5" width="8.7109375" style="6"/>
-    <col min="6" max="6" width="27.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.85546875" style="6" customWidth="1"/>
-    <col min="8" max="10" width="8.7109375" style="6"/>
+    <col min="1" max="1" width="26.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.26953125" style="6" customWidth="1"/>
+    <col min="3" max="5" width="8.7265625" style="6"/>
+    <col min="6" max="6" width="27.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.81640625" style="6" customWidth="1"/>
+    <col min="8" max="10" width="8.7265625" style="6"/>
     <col min="11" max="11" width="35" style="6" customWidth="1"/>
-    <col min="12" max="12" width="23.140625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" style="6"/>
-    <col min="14" max="14" width="27.42578125" style="35" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="32.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.1796875" style="6" customWidth="1"/>
+    <col min="13" max="13" width="8.7265625" style="6"/>
+    <col min="14" max="14" width="27.453125" style="35" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32.81640625" style="35" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.7109375" style="6"/>
+    <col min="17" max="16384" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>81</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>14</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>15</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>16</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>17</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>18</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>19</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>225.10639794590415</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>20</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>21</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>225.10639794590415</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>22</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>23</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>225.10639794590415</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>24</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>25</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>225.10639794590415</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>26</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>225.10639794590415</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>27</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>28</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>225.10639794590415</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>29</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>30</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>225.10639794590415</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>31</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>32</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>225.10639794590415</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>33</v>
       </c>
@@ -2117,9 +2117,11 @@
       <c r="O35" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="P35" s="38"/>
-    </row>
-    <row r="36" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="P35" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>34</v>
       </c>
@@ -2139,7 +2141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>35</v>
       </c>
@@ -2159,7 +2161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>36</v>
       </c>
@@ -2175,9 +2177,11 @@
       <c r="O38" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="P38" s="38"/>
-    </row>
-    <row r="39" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P38" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>37</v>
       </c>
@@ -2198,7 +2202,7 @@
         <v>225.10639794590415</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>38</v>
       </c>
@@ -2218,7 +2222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>39</v>
       </c>
@@ -2238,7 +2242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>40</v>
       </c>
@@ -2258,7 +2262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>41</v>
       </c>
@@ -2278,7 +2282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>42</v>
       </c>
@@ -2298,7 +2302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>43</v>
       </c>
@@ -2318,7 +2322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>44</v>
       </c>
@@ -2338,7 +2342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>45</v>
       </c>
@@ -2358,7 +2362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>46</v>
       </c>
@@ -2378,7 +2382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>47</v>
       </c>
@@ -2398,7 +2402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>48</v>
       </c>
@@ -2418,7 +2422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>49</v>
       </c>
@@ -2438,7 +2442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>50</v>
       </c>
@@ -2458,7 +2462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>51</v>
       </c>
@@ -2478,7 +2482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" ht="13" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>52</v>
       </c>
@@ -2498,7 +2502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>53</v>
       </c>
@@ -2509,7 +2513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>54</v>
       </c>
@@ -2520,7 +2524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>55</v>
       </c>
@@ -2531,7 +2535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>56</v>
       </c>
@@ -2542,7 +2546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>57</v>
       </c>
@@ -2553,7 +2557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>58</v>
       </c>
@@ -2564,7 +2568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>59</v>
       </c>
@@ -2575,7 +2579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>60</v>
       </c>
@@ -2586,7 +2590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>61</v>
       </c>
@@ -2597,7 +2601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>62</v>
       </c>
@@ -2608,7 +2612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>63</v>
       </c>
@@ -2619,7 +2623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="19" t="s">
         <v>64</v>
       </c>
@@ -2630,7 +2634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>65</v>
       </c>
@@ -2641,7 +2645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>66</v>
       </c>
@@ -2652,7 +2656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>67</v>
       </c>
@@ -2663,7 +2667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>68</v>
       </c>
@@ -2674,7 +2678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>69</v>
       </c>
@@ -2685,7 +2689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>70</v>
       </c>
@@ -2696,7 +2700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>71</v>
       </c>
@@ -2707,7 +2711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>72</v>
       </c>
@@ -2718,7 +2722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>73</v>
       </c>
@@ -2729,7 +2733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>74</v>
       </c>
@@ -2740,7 +2744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>75</v>
       </c>
@@ -2751,7 +2755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>76</v>
       </c>
@@ -2762,7 +2766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>77</v>
       </c>
@@ -2773,7 +2777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>78</v>
       </c>
@@ -2784,13 +2788,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="13"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="13"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="13"/>
     </row>
   </sheetData>
@@ -2803,19 +2807,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81233234-B257-4C61-B392-13CCC8AF2339}">
   <dimension ref="A1:AG102"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D50" sqref="D50:E102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.140625" customWidth="1"/>
+    <col min="3" max="3" width="51.1796875" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2916,172 +2920,172 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B41" s="20" t="s">
         <v>138</v>
       </c>
@@ -3089,7 +3093,7 @@
       <c r="D41" s="21"/>
       <c r="E41" s="21"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B42" s="20" t="s">
         <v>139</v>
       </c>
@@ -3097,7 +3101,7 @@
       <c r="D42" s="21"/>
       <c r="E42" s="21"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B43" s="20" t="s">
         <v>140</v>
       </c>
@@ -3105,7 +3109,7 @@
       <c r="D43" s="21"/>
       <c r="E43" s="21"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B44" s="20" t="s">
         <v>141</v>
       </c>
@@ -3113,7 +3117,7 @@
       <c r="D44" s="21"/>
       <c r="E44" s="21"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B45" s="20" t="s">
         <v>142</v>
       </c>
@@ -3121,7 +3125,7 @@
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B46" s="20" t="s">
         <v>143</v>
       </c>
@@ -3129,7 +3133,7 @@
       <c r="D46" s="21"/>
       <c r="E46" s="21"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B47" s="20" t="s">
         <v>144</v>
       </c>
@@ -3137,7 +3141,7 @@
       <c r="D47" s="21"/>
       <c r="E47" s="21"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B48" s="20" t="s">
         <v>145</v>
       </c>
@@ -3145,7 +3149,7 @@
       <c r="D48" s="21"/>
       <c r="E48" s="21"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B49" s="22" t="s">
         <v>146</v>
       </c>
@@ -3153,7 +3157,7 @@
       <c r="D49" s="21"/>
       <c r="E49" s="21"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B50" s="20" t="s">
         <v>0</v>
       </c>
@@ -3167,7 +3171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B51" s="20" t="s">
         <v>1</v>
       </c>
@@ -3181,7 +3185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B52" s="20" t="s">
         <v>2</v>
       </c>
@@ -3195,7 +3199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B53" s="20" t="s">
         <v>3</v>
       </c>
@@ -3209,7 +3213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B54" s="20" t="s">
         <v>4</v>
       </c>
@@ -3223,7 +3227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B55" s="20" t="s">
         <v>5</v>
       </c>
@@ -3237,7 +3241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B56" s="20" t="s">
         <v>6</v>
       </c>
@@ -3251,7 +3255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B57" s="20" t="s">
         <v>7</v>
       </c>
@@ -3265,7 +3269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B58" s="20" t="s">
         <v>8</v>
       </c>
@@ -3279,7 +3283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B59" s="30" t="s">
         <v>147</v>
       </c>
@@ -3290,7 +3294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B60" s="20" t="s">
         <v>10</v>
       </c>
@@ -3304,7 +3308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B61" s="20" t="s">
         <v>11</v>
       </c>
@@ -3318,7 +3322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B62" s="20" t="s">
         <v>12</v>
       </c>
@@ -3332,7 +3336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B63" s="20" t="s">
         <v>13</v>
       </c>
@@ -3346,7 +3350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B64" s="20" t="s">
         <v>14</v>
       </c>
@@ -3360,7 +3364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B65" s="20" t="s">
         <v>15</v>
       </c>
@@ -3374,7 +3378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B66" s="20" t="s">
         <v>16</v>
       </c>
@@ -3388,7 +3392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B67" s="20" t="s">
         <v>17</v>
       </c>
@@ -3402,7 +3406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B68" s="20" t="s">
         <v>18</v>
       </c>
@@ -3416,7 +3420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B69" s="20" t="s">
         <v>19</v>
       </c>
@@ -3431,7 +3435,7 @@
         <v>225.10639794590415</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B70" s="30" t="s">
         <v>54</v>
       </c>
@@ -3442,7 +3446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B71" s="20" t="s">
         <v>30</v>
       </c>
@@ -3457,7 +3461,7 @@
         <v>225.10639794590415</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B72" s="30" t="s">
         <v>65</v>
       </c>
@@ -3468,7 +3472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B73" s="30" t="s">
         <v>31</v>
       </c>
@@ -3483,7 +3487,7 @@
         <v>225.10639794590415</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B74" s="20" t="s">
         <v>66</v>
       </c>
@@ -3494,7 +3498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B75" s="20" t="s">
         <v>33</v>
       </c>
@@ -3509,7 +3513,7 @@
         <v>225.10639794590415</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B76" s="20" t="s">
         <v>34</v>
       </c>
@@ -3524,7 +3528,7 @@
         <v>225.10639794590415</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B77" s="20" t="s">
         <v>68</v>
       </c>
@@ -3535,7 +3539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B78" s="30" t="s">
         <v>35</v>
       </c>
@@ -3550,7 +3554,7 @@
         <v>225.10639794590415</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B79" s="30" t="s">
         <v>69</v>
       </c>
@@ -3561,7 +3565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B80" s="20" t="s">
         <v>36</v>
       </c>
@@ -3576,7 +3580,7 @@
         <v>225.10639794590415</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B81" s="30" t="s">
         <v>148</v>
       </c>
@@ -3587,7 +3591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B82" s="20" t="s">
         <v>37</v>
       </c>
@@ -3602,7 +3606,7 @@
         <v>225.10639794590415</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B83" s="30" t="s">
         <v>149</v>
       </c>
@@ -3610,7 +3614,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B84" s="30" t="s">
         <v>150</v>
       </c>
@@ -3621,7 +3625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B85" s="30" t="s">
         <v>71</v>
       </c>
@@ -3632,7 +3636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B86" s="31" t="s">
         <v>39</v>
       </c>
@@ -3640,7 +3644,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B87" s="20" t="s">
         <v>40</v>
       </c>
@@ -3655,7 +3659,7 @@
         <v>225.10639794590415</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B88" s="30" t="s">
         <v>73</v>
       </c>
@@ -3666,7 +3670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B89" s="20" t="s">
         <v>41</v>
       </c>
@@ -3680,7 +3684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B90" s="20" t="s">
         <v>42</v>
       </c>
@@ -3694,7 +3698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B91" s="20" t="s">
         <v>43</v>
       </c>
@@ -3708,7 +3712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B92" s="20" t="s">
         <v>44</v>
       </c>
@@ -3722,7 +3726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B93" s="20" t="s">
         <v>45</v>
       </c>
@@ -3736,7 +3740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B94" s="20" t="s">
         <v>46</v>
       </c>
@@ -3750,7 +3754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B95" s="30" t="s">
         <v>47</v>
       </c>
@@ -3762,7 +3766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B96" s="30" t="s">
         <v>48</v>
       </c>
@@ -3774,7 +3778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B97" s="30" t="s">
         <v>49</v>
       </c>
@@ -3786,7 +3790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B98" s="30" t="s">
         <v>50</v>
       </c>
@@ -3798,7 +3802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B99" s="30" t="s">
         <v>51</v>
       </c>
@@ -3810,7 +3814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B100" s="30" t="s">
         <v>52</v>
       </c>
@@ -3822,7 +3826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B101" s="30" t="s">
         <v>151</v>
       </c>
@@ -3834,7 +3838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B102" s="30" t="s">
         <v>152</v>
       </c>
